--- a/003.python_study/006.project/001.sql_approval/014.报表/报表.xlsx
+++ b/003.python_study/006.project/001.sql_approval/014.报表/报表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
   <si>
     <t>SQL平台汇总报表</t>
   </si>
@@ -95,31 +95,50 @@
     <t>SQL审核明细汇总</t>
   </si>
   <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>审核日期</t>
+  </si>
+  <si>
+    <t>2025-4-7</t>
+  </si>
+  <si>
+    <t>结果来源</t>
+  </si>
+  <si>
+    <t>自动任务</t>
+  </si>
+  <si>
+    <t>审核结果</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>数据源</t>
+  </si>
+  <si>
+    <t>种类</t>
+  </si>
+  <si>
+    <t>INSERT</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
-    <t>数据源</t>
-  </si>
-  <si>
     <t>SQL语句</t>
   </si>
   <si>
-    <t>种类</t>
-  </si>
-  <si>
-    <t>审核结果</t>
-  </si>
-  <si>
     <t>执行时间</t>
   </si>
   <si>
-    <t>审核时间</t>
-  </si>
-  <si>
-    <t>不满足算法（违反规则）</t>
-  </si>
-  <si>
-    <t>结果来源</t>
+    <t>审核时间(倒序)</t>
+  </si>
+  <si>
+    <t>不满足算法
+（违反规则）</t>
   </si>
   <si>
     <t>ORACLE</t>
@@ -134,15 +153,9 @@
     <t>SELECT</t>
   </si>
   <si>
-    <t>不通过</t>
-  </si>
-  <si>
     <t>禁止使用 *......</t>
   </si>
   <si>
-    <t>自动任务</t>
-  </si>
-  <si>
     <t>INSERT INTO VALUE(XX)</t>
   </si>
   <si>
@@ -155,31 +168,21 @@
     <t>CREATE</t>
   </si>
   <si>
-    <t>通过</t>
-  </si>
-  <si>
     <t>214测试环境环境</t>
   </si>
   <si>
+    <t xml:space="preserve">INSERT INTO VALUE(XX)
+</t>
+  </si>
+  <si>
     <t>禁止设置NULL</t>
   </si>
   <si>
     <t>215测试环境环境</t>
   </si>
   <si>
-    <t>216测试环境环境</t>
-  </si>
-  <si>
-    <t>217测试环境环境</t>
-  </si>
-  <si>
-    <t>218测试环境环境</t>
-  </si>
-  <si>
-    <t>219测试环境环境</t>
-  </si>
-  <si>
-    <t>220测试环境环境</t>
+    <t>SELECT * 
+FROM...</t>
   </si>
   <si>
     <t>...</t>
@@ -356,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,12 +368,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -556,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -568,6 +595,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -703,7 +767,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,55 +779,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,8 +878,20 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -837,28 +901,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,676 +1275,728 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:XFB30"/>
+  <dimension ref="A4:XFA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="6" width="12.4159292035398" customWidth="1"/>
-    <col min="7" max="7" width="13.4336283185841" customWidth="1"/>
+    <col min="7" max="7" width="17.3274336283186" customWidth="1"/>
     <col min="8" max="8" width="16.1946902654867" customWidth="1"/>
-    <col min="9" max="9" width="16.4070796460177" customWidth="1"/>
+    <col min="9" max="9" width="17.9911504424779" customWidth="1"/>
     <col min="10" max="10" width="18.3274336283186" customWidth="1"/>
+    <col min="11" max="11" width="10.5929203539823" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:10">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>45717</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>45747</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:10">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>10</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="7">
         <v>76</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="7">
         <v>56</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="7">
         <v>30</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="7">
         <v>100</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="18">
         <v>1000</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="18">
         <v>300</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>6</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>55</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <v>65</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="7">
         <v>6</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="7">
         <v>547</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="18">
         <v>457</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="18">
         <v>547</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>23</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="7">
         <v>33</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="7">
         <v>67</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="7">
         <v>67</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="7">
         <v>567</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="18">
         <v>67</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="18">
         <v>547</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>9</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="7">
         <v>65</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="7">
         <v>56</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="7">
         <v>567</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="7">
         <v>567</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="18">
         <v>547</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="18">
         <v>567</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <v>5</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="7">
         <v>67</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="7">
         <v>43</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="7">
         <v>42</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="7">
         <v>45</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="18">
         <v>766</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="18">
         <v>757</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <v>29</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="7">
         <v>43</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="7">
         <v>296</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="7">
         <v>287</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="7">
         <v>712</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="7">
         <v>1826</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="18">
         <v>2837</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="18">
         <v>2718</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1"/>
     <row r="17" spans="2:11">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5" t="s">
+      <c r="B18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" ht="27" spans="2:11">
+      <c r="B20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="6">
-        <v>45717</v>
-      </c>
-      <c r="J18" s="6">
-        <v>45717</v>
-      </c>
-      <c r="K18" s="5" t="s">
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="16">
+        <v>45754.7005208333</v>
+      </c>
+      <c r="I21" s="16">
+        <v>45754.7005208333</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="2:11">
+      <c r="B22" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="16">
+        <v>45754.7005208333</v>
+      </c>
+      <c r="I22" s="16">
+        <v>45754.7005208333</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="3">
         <v>3</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="16">
+        <v>45755.7005208333</v>
+      </c>
+      <c r="I23" s="16">
+        <v>45755.7005208333</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="9">
-        <v>45754.7005208333</v>
-      </c>
-      <c r="I20" s="9">
-        <v>45754.7005208333</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="8" t="s">
+    </row>
+    <row r="24" ht="40.5" spans="2:11">
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="4">
-        <v>2</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="9">
-        <v>45754.7005208333</v>
-      </c>
-      <c r="I21" s="9">
-        <v>45754.7005208333</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="4">
-        <v>3</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="9">
-        <v>45755.7005208333</v>
-      </c>
-      <c r="I22" s="9">
-        <v>45755.7005208333</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="8" t="s">
+      <c r="D24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="16">
+        <v>45756.7005208333</v>
+      </c>
+      <c r="I24" s="16">
+        <v>45756.7005208333</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="2:11">
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="4">
-        <v>4</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="D25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="16">
+        <v>45757.7005208333</v>
+      </c>
+      <c r="I25" s="16">
+        <v>45757.7005208333</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="9">
-        <v>45756.7005208333</v>
-      </c>
-      <c r="I23" s="9">
-        <v>45756.7005208333</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="4">
-        <v>5</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="9">
-        <v>45757.7005208333</v>
-      </c>
-      <c r="I24" s="9">
-        <v>45757.7005208333</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="4">
-        <v>6</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="9">
-        <v>45758.7005208333</v>
-      </c>
-      <c r="I25" s="9">
-        <v>45758.7005208333</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="4">
-        <v>7</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="9">
-        <v>45759.7005208333</v>
-      </c>
-      <c r="I26" s="9">
-        <v>45759.7005208333</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>39</v>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="4">
-        <v>8</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="9">
-        <v>45760.7005208333</v>
-      </c>
-      <c r="I27" s="9">
-        <v>45760.7005208333</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>39</v>
+      <c r="B27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="4">
-        <v>9</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="9">
-        <v>45761.7005208333</v>
-      </c>
-      <c r="I28" s="9">
-        <v>45761.7005208333</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>37</v>
+      <c r="B28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="4">
-        <v>10</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="9">
-        <v>45761.7005208333</v>
-      </c>
-      <c r="I29" s="9">
-        <v>45761.7005208333</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>37</v>
+      <c r="B29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1850,9 +2005,9 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A14:XFB14"/>
+    <mergeCell ref="A14:XFA14"/>
     <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="F19:K19"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>

--- a/003.python_study/006.project/001.sql_approval/014.报表/报表.xlsx
+++ b/003.python_study/006.project/001.sql_approval/014.报表/报表.xlsx
@@ -27,102 +27,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="57">
   <si>
     <t>SQL平台汇总报表</t>
   </si>
   <si>
+    <t>数据库类型</t>
+  </si>
+  <si>
+    <t>实例数</t>
+  </si>
+  <si>
+    <t>上线工单</t>
+  </si>
+  <si>
+    <t>算法数量</t>
+  </si>
+  <si>
+    <t>审核次数</t>
+  </si>
+  <si>
+    <t>任务执行统计</t>
+  </si>
+  <si>
+    <t>动态</t>
+  </si>
+  <si>
+    <t>静态</t>
+  </si>
+  <si>
+    <t>动态审核次数</t>
+  </si>
+  <si>
+    <t>静态审核次数</t>
+  </si>
+  <si>
+    <t>动态（次）</t>
+  </si>
+  <si>
+    <t>静态（次）</t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+  </si>
+  <si>
+    <t>OARCLE</t>
+  </si>
+  <si>
+    <t>TDSQL</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>OceanBase</t>
+  </si>
+  <si>
+    <t>OB-MySql</t>
+  </si>
+  <si>
+    <t>OB-Oracle</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>SQL审核明细统计</t>
+  </si>
+  <si>
+    <t>业务组</t>
+  </si>
+  <si>
+    <t>（模糊）</t>
+  </si>
+  <si>
+    <t>数据源</t>
+  </si>
+  <si>
+    <t>种类</t>
+  </si>
+  <si>
     <t>时间范围</t>
   </si>
   <si>
+    <t>2025-03-09 15:30:27</t>
+  </si>
+  <si>
     <t>至</t>
   </si>
   <si>
-    <t>数据库类型</t>
-  </si>
-  <si>
-    <t>实例数</t>
-  </si>
-  <si>
-    <t>上线工单</t>
-  </si>
-  <si>
-    <t>算法</t>
-  </si>
-  <si>
-    <t>审核</t>
-  </si>
-  <si>
-    <t>任务运行统计</t>
-  </si>
-  <si>
-    <t>动态</t>
-  </si>
-  <si>
-    <t>静态</t>
-  </si>
-  <si>
-    <t>动态审核次数</t>
-  </si>
-  <si>
-    <t>静态审核次数</t>
-  </si>
-  <si>
-    <t>动态（次）</t>
-  </si>
-  <si>
-    <t>静态（次）</t>
-  </si>
-  <si>
-    <t>MYSQL</t>
-  </si>
-  <si>
-    <t>OARCLE</t>
-  </si>
-  <si>
-    <t>TDSQL</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>OceanBase</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>SQL审核明细汇总</t>
+    <t>2025-05-09 16:00:30</t>
+  </si>
+  <si>
+    <t>{MYSQL}</t>
   </si>
   <si>
     <t>模式</t>
   </si>
   <si>
-    <t>审核日期</t>
-  </si>
-  <si>
-    <t>2025-4-7</t>
+    <t>{动态}</t>
   </si>
   <si>
     <t>结果来源</t>
   </si>
   <si>
-    <t>自动任务</t>
+    <t>{自动任务}</t>
   </si>
   <si>
     <t>审核结果</t>
   </si>
   <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>数据源</t>
-  </si>
-  <si>
-    <t>种类</t>
-  </si>
-  <si>
-    <t>INSERT</t>
+    <t>{通过}</t>
   </si>
   <si>
     <t>序号</t>
@@ -131,10 +146,26 @@
     <t>SQL语句</t>
   </si>
   <si>
-    <t>执行时间</t>
-  </si>
-  <si>
-    <t>审核时间(倒序)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>审核时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(倒序)</t>
+    </r>
   </si>
   <si>
     <t>不满足算法
@@ -154,6 +185,9 @@
   </si>
   <si>
     <t>禁止使用 *......</t>
+  </si>
+  <si>
+    <t>自动任务</t>
   </si>
   <si>
     <t>INSERT INTO VALUE(XX)</t>
@@ -198,7 +232,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +249,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -359,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,12 +409,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,13 +421,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -595,43 +648,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -761,76 +777,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,10 +849,10 @@
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,10 +861,10 @@
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,10 +873,10 @@
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,10 +885,10 @@
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,11 +897,17 @@
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,68 +917,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1275,10 +1285,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:XFA32"/>
+  <dimension ref="A4:XFA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1286,9 +1296,9 @@
     <col min="2" max="6" width="12.4159292035398" customWidth="1"/>
     <col min="7" max="7" width="17.3274336283186" customWidth="1"/>
     <col min="8" max="8" width="16.1946902654867" customWidth="1"/>
-    <col min="9" max="9" width="17.9911504424779" customWidth="1"/>
+    <col min="9" max="9" width="22.0176991150442" customWidth="1"/>
     <col min="10" max="10" width="18.3274336283186" customWidth="1"/>
-    <col min="11" max="11" width="10.5929203539823" customWidth="1"/>
+    <col min="11" max="11" width="21.787610619469" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:10">
@@ -1305,712 +1315,739 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
+        <v>76</v>
+      </c>
+      <c r="F7" s="5">
+        <v>56</v>
+      </c>
+      <c r="G7" s="5">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5">
+        <v>100</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>55</v>
+      </c>
+      <c r="F8" s="5">
+        <v>65</v>
+      </c>
+      <c r="G8" s="5">
+        <v>6</v>
+      </c>
+      <c r="H8" s="5">
+        <v>547</v>
+      </c>
+      <c r="I8" s="5">
+        <v>457</v>
+      </c>
+      <c r="J8" s="5">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5">
+        <v>67</v>
+      </c>
+      <c r="G9" s="5">
+        <v>67</v>
+      </c>
+      <c r="H9" s="5">
+        <v>567</v>
+      </c>
+      <c r="I9" s="5">
+        <v>67</v>
+      </c>
+      <c r="J9" s="5">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="5">
-        <v>45717</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="E10" s="5">
+        <v>65</v>
+      </c>
+      <c r="F10" s="5">
+        <v>56</v>
+      </c>
+      <c r="G10" s="5">
+        <v>567</v>
+      </c>
+      <c r="H10" s="5">
+        <v>567</v>
+      </c>
+      <c r="I10" s="5">
+        <v>547</v>
+      </c>
+      <c r="J10" s="5">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>67</v>
+      </c>
+      <c r="F11" s="5">
+        <v>43</v>
+      </c>
+      <c r="G11" s="5">
+        <v>42</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45</v>
+      </c>
+      <c r="I11" s="5">
+        <v>766</v>
+      </c>
+      <c r="J11" s="5">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>67</v>
+      </c>
+      <c r="F12" s="5">
+        <v>43</v>
+      </c>
+      <c r="G12" s="5">
+        <v>42</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45</v>
+      </c>
+      <c r="I12" s="5">
+        <v>766</v>
+      </c>
+      <c r="J12" s="5">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>67</v>
+      </c>
+      <c r="F13" s="5">
+        <v>43</v>
+      </c>
+      <c r="G13" s="5">
+        <v>42</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45</v>
+      </c>
+      <c r="I13" s="5">
+        <v>766</v>
+      </c>
+      <c r="J13" s="5">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5">
+        <v>296</v>
+      </c>
+      <c r="F14" s="5">
+        <v>287</v>
+      </c>
+      <c r="G14" s="5">
+        <v>712</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1826</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2837</v>
+      </c>
+      <c r="J14" s="5">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1"/>
+    <row r="18" spans="2:11">
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" ht="27" spans="2:11">
+      <c r="B21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="15">
+        <v>45754.7005208333</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" ht="27" spans="2:11">
+      <c r="B23" s="13">
         <v>2</v>
       </c>
-      <c r="J5" s="5">
-        <v>45747</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="6" t="s">
+      <c r="C23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="15">
+        <v>45754.7005208333</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="15">
+        <v>45755.7005208333</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" ht="40.5" spans="2:11">
+      <c r="B25" s="13">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="15">
+        <v>45756.7005208333</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" ht="27" spans="2:11">
+      <c r="B26" s="13">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="C26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7">
-        <v>76</v>
-      </c>
-      <c r="F8" s="7">
-        <v>56</v>
-      </c>
-      <c r="G8" s="7">
-        <v>30</v>
-      </c>
-      <c r="H8" s="7">
-        <v>100</v>
-      </c>
-      <c r="I8" s="18">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7">
-        <v>4</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="F26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="7">
-        <v>65</v>
-      </c>
-      <c r="G9" s="7">
-        <v>6</v>
-      </c>
-      <c r="H9" s="7">
-        <v>547</v>
-      </c>
-      <c r="I9" s="18">
-        <v>457</v>
-      </c>
-      <c r="J9" s="18">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7">
-        <v>33</v>
-      </c>
-      <c r="F10" s="7">
-        <v>67</v>
-      </c>
-      <c r="G10" s="7">
-        <v>67</v>
-      </c>
-      <c r="H10" s="7">
-        <v>567</v>
-      </c>
-      <c r="I10" s="18">
-        <v>67</v>
-      </c>
-      <c r="J10" s="18">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="7">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
-        <v>65</v>
-      </c>
-      <c r="F11" s="7">
-        <v>56</v>
-      </c>
-      <c r="G11" s="7">
-        <v>567</v>
-      </c>
-      <c r="H11" s="7">
-        <v>567</v>
-      </c>
-      <c r="I11" s="18">
-        <v>547</v>
-      </c>
-      <c r="J11" s="18">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5</v>
-      </c>
-      <c r="E12" s="7">
-        <v>67</v>
-      </c>
-      <c r="F12" s="7">
-        <v>43</v>
-      </c>
-      <c r="G12" s="7">
-        <v>42</v>
-      </c>
-      <c r="H12" s="7">
-        <v>45</v>
-      </c>
-      <c r="I12" s="18">
-        <v>766</v>
-      </c>
-      <c r="J12" s="18">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7">
-        <v>29</v>
-      </c>
-      <c r="D13" s="7">
-        <v>43</v>
-      </c>
-      <c r="E13" s="7">
-        <v>296</v>
-      </c>
-      <c r="F13" s="7">
-        <v>287</v>
-      </c>
-      <c r="G13" s="7">
-        <v>712</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1826</v>
-      </c>
-      <c r="I13" s="18">
-        <v>2837</v>
-      </c>
-      <c r="J13" s="18">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="17" spans="2:11">
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" ht="27" spans="2:11">
-      <c r="B20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="16">
-        <v>45754.7005208333</v>
-      </c>
-      <c r="I21" s="16">
-        <v>45754.7005208333</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" ht="27" spans="2:11">
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="16">
-        <v>45754.7005208333</v>
-      </c>
-      <c r="I22" s="16">
-        <v>45754.7005208333</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="3">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="16">
-        <v>45755.7005208333</v>
-      </c>
-      <c r="I23" s="16">
-        <v>45755.7005208333</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" ht="40.5" spans="2:11">
-      <c r="B24" s="3">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="16">
-        <v>45756.7005208333</v>
-      </c>
-      <c r="I24" s="16">
-        <v>45756.7005208333</v>
-      </c>
-      <c r="J24" s="22" t="s">
+      <c r="G26" s="13"/>
+      <c r="H26" s="15">
+        <v>45757.7005208333</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="2:11">
-      <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="16">
-        <v>45757.7005208333</v>
-      </c>
-      <c r="I25" s="16">
-        <v>45757.7005208333</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>51</v>
+      <c r="B27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>51</v>
+      <c r="B28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>51</v>
+      <c r="B29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>51</v>
+      <c r="B30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>51</v>
+      <c r="B31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="B32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
     <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A14:XFA14"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A15:XFA15"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
